--- a/results/acl-pretrain/xlm-roberta/results_pos.xlsx
+++ b/results/acl-pretrain/xlm-roberta/results_pos.xlsx
@@ -24,6 +24,9 @@
     <t>Language</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
   </si>
   <si>
     <t>Hebrew</t>
-  </si>
-  <si>
-    <t>German</t>
   </si>
   <si>
     <t>Thai</t>
@@ -440,7 +440,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,154 +450,154 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.90428037124255434</v>
+        <v>0.9787187739463602</v>
       </c>
       <c r="C2">
-        <v>0.82264394883871261</v>
+        <v>0.81036015325670496</v>
       </c>
       <c r="D2">
-        <v>0.76326360991827125</v>
+        <v>0.73371647509578541</v>
       </c>
       <c r="E2">
-        <v>0.81414785057948935</v>
+        <v>0.85489348659003828</v>
       </c>
       <c r="F2">
-        <v>0.81931938865032095</v>
+        <v>0.80654099616858232</v>
       </c>
       <c r="G2">
-        <v>0.64131689523017965</v>
+        <v>0.64673103448275859</v>
       </c>
       <c r="H2">
-        <v>0.54259592741376927</v>
+        <v>0.55739157088122604</v>
       </c>
       <c r="I2">
-        <v>0.75227409151775404</v>
+        <v>0.70211800766283528</v>
       </c>
       <c r="J2">
-        <v>0.69395576487971555</v>
+        <v>0.68326130268199237</v>
       </c>
       <c r="K2">
-        <v>0.64441058318326638</v>
+        <v>0.62637854406130267</v>
       </c>
       <c r="L2">
-        <v>0.59805143833402596</v>
+        <v>0.58102988505747122</v>
       </c>
       <c r="M2">
-        <v>0.5526157824260054</v>
+        <v>0.53822835249042145</v>
       </c>
       <c r="N2">
-        <v>0.68398208431454033</v>
+        <v>0.67488429118773952</v>
       </c>
       <c r="O2">
-        <v>0.65082883132474489</v>
+        <v>0.64718467432950189</v>
       </c>
       <c r="P2">
-        <v>0.75813824629450066</v>
+        <v>0.73836628352490419</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.81378410239137755</v>
+        <v>0.82568511960000757</v>
       </c>
       <c r="C3">
-        <v>0.8960929605927922</v>
+        <v>0.98691312664532871</v>
       </c>
       <c r="D3">
-        <v>0.81618390030313237</v>
+        <v>0.86333592166815021</v>
       </c>
       <c r="E3">
-        <v>0.85083361401145163</v>
+        <v>0.88649836177345132</v>
       </c>
       <c r="F3">
-        <v>0.79808016167059614</v>
+        <v>0.78441696179996589</v>
       </c>
       <c r="G3">
-        <v>0.57873021219265741</v>
+        <v>0.5815041381792011</v>
       </c>
       <c r="H3">
-        <v>0.58462445267766927</v>
+        <v>0.58214806537754971</v>
       </c>
       <c r="I3">
-        <v>0.75934658134051869</v>
+        <v>0.83271150167610464</v>
       </c>
       <c r="J3">
-        <v>0.59557089929269114</v>
+        <v>0.62604874907672203</v>
       </c>
       <c r="K3">
-        <v>0.57414112495789826</v>
+        <v>0.58966686237003085</v>
       </c>
       <c r="L3">
-        <v>0.51599865274503198</v>
+        <v>0.52040681047707427</v>
       </c>
       <c r="M3">
-        <v>0.50286291680700568</v>
+        <v>0.49495274710706239</v>
       </c>
       <c r="N3">
-        <v>0.60335971707645675</v>
+        <v>0.62426847976364086</v>
       </c>
       <c r="O3">
-        <v>0.65746042438531493</v>
+        <v>0.65163538569345281</v>
       </c>
       <c r="P3">
-        <v>0.76494610980127986</v>
+        <v>0.75441752997102329</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.8269112680380718</v>
@@ -621,7 +621,7 @@
         <v>0.6137549892539147</v>
       </c>
       <c r="I4">
-        <v>0.76281854467301202</v>
+        <v>0.76197420939514893</v>
       </c>
       <c r="J4">
         <v>0.78661344795824373</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.86748314756724287</v>
@@ -671,7 +671,7 @@
         <v>0.57485149836481342</v>
       </c>
       <c r="I5">
-        <v>0.81592471467663352</v>
+        <v>0.78972835880664749</v>
       </c>
       <c r="J5">
         <v>0.74901555095775207</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0.82219373741073065</v>
@@ -721,7 +721,7 @@
         <v>0.49661234206189342</v>
       </c>
       <c r="I6">
-        <v>0.66626991393517676</v>
+        <v>0.69181468595495332</v>
       </c>
       <c r="J6">
         <v>0.67057315509979853</v>
@@ -747,57 +747,57 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.53616623861779122</v>
+        <v>0.53488178488178484</v>
       </c>
       <c r="C7">
-        <v>0.41615689936960082</v>
+        <v>0.4408924408924409</v>
       </c>
       <c r="D7">
-        <v>0.37702544945131922</v>
+        <v>0.36771561771561773</v>
       </c>
       <c r="E7">
-        <v>0.6134485173943498</v>
+        <v>0.62054612054612057</v>
       </c>
       <c r="F7">
-        <v>0.61092692038290919</v>
+        <v>0.61038961038961037</v>
       </c>
       <c r="G7">
-        <v>0.94088255895400419</v>
+        <v>0.96386946386946382</v>
       </c>
       <c r="H7">
-        <v>0.49147793602614992</v>
+        <v>0.52822177822177818</v>
       </c>
       <c r="I7">
-        <v>0.61615689936960072</v>
+        <v>0.57101232101232102</v>
       </c>
       <c r="J7">
-        <v>0.57903338781228109</v>
+        <v>0.59948384948384947</v>
       </c>
       <c r="K7">
-        <v>0.55834695307027782</v>
+        <v>0.5815850815850816</v>
       </c>
       <c r="L7">
-        <v>0.63689003035255665</v>
+        <v>0.64244089244089242</v>
       </c>
       <c r="M7">
-        <v>0.63759047396684565</v>
+        <v>0.65068265068265063</v>
       </c>
       <c r="N7">
-        <v>0.50539341583002573</v>
+        <v>0.52314352314352319</v>
       </c>
       <c r="O7">
-        <v>0.53173009572729391</v>
+        <v>0.50924075924075929</v>
       </c>
       <c r="P7">
-        <v>0.6628531403222041</v>
+        <v>0.66441891441891443</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.45211208699289002</v>
@@ -821,7 +821,7 @@
         <v>0.89401923881221246</v>
       </c>
       <c r="I8">
-        <v>0.65177749895441239</v>
+        <v>0.6311166875784191</v>
       </c>
       <c r="J8">
         <v>0.5692179004600586</v>
@@ -871,7 +871,7 @@
         <v>0.57436609622793655</v>
       </c>
       <c r="I9">
-        <v>0.69308305707373896</v>
+        <v>0.62248006451034854</v>
       </c>
       <c r="J9">
         <v>0.6097123913627811</v>
@@ -897,107 +897,107 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.70609571788413095</v>
+        <v>0.68641765704584046</v>
       </c>
       <c r="C10">
-        <v>0.82785894206549115</v>
+        <v>0.83786078098471983</v>
       </c>
       <c r="D10">
-        <v>0.77123425692695213</v>
+        <v>0.77478777589134129</v>
       </c>
       <c r="E10">
-        <v>0.83299748110831229</v>
+        <v>0.83684210526315794</v>
       </c>
       <c r="F10">
-        <v>0.72972292191435773</v>
+        <v>0.69736842105263153</v>
       </c>
       <c r="G10">
-        <v>0.67607052896725439</v>
+        <v>0.68743633276740235</v>
       </c>
       <c r="H10">
-        <v>0.60136020151133496</v>
+        <v>0.59533106960950766</v>
       </c>
       <c r="I10">
-        <v>0.90901763224181364</v>
+        <v>0.9286078098471986</v>
       </c>
       <c r="J10">
-        <v>0.74267002518891689</v>
+        <v>0.74966044142614596</v>
       </c>
       <c r="K10">
-        <v>0.69345088161209067</v>
+        <v>0.69719864176570456</v>
       </c>
       <c r="L10">
-        <v>0.60664987405541559</v>
+        <v>0.61663837011884548</v>
       </c>
       <c r="M10">
-        <v>0.58186397984886651</v>
+        <v>0.58225806451612905</v>
       </c>
       <c r="N10">
-        <v>0.67385390428211589</v>
+        <v>0.67292020373514427</v>
       </c>
       <c r="O10">
-        <v>0.68453400503778339</v>
+        <v>0.61315789473684212</v>
       </c>
       <c r="P10">
-        <v>0.7901259445843829</v>
+        <v>0.77164685908319186</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.80092270745117866</v>
+        <v>0.77695730379627004</v>
       </c>
       <c r="C11">
-        <v>0.8674714023889275</v>
+        <v>0.85141531761810096</v>
       </c>
       <c r="D11">
-        <v>0.77779182203122033</v>
+        <v>0.76521821452238947</v>
       </c>
       <c r="E11">
-        <v>0.85647475194337352</v>
+        <v>0.83072990627662591</v>
       </c>
       <c r="F11">
-        <v>0.80945459141755671</v>
+        <v>0.83058790116444192</v>
       </c>
       <c r="G11">
-        <v>0.73355242368703788</v>
+        <v>0.74069866515194549</v>
       </c>
       <c r="H11">
-        <v>0.58964798078746128</v>
+        <v>0.59736817192085578</v>
       </c>
       <c r="I11">
-        <v>0.80705302407887247</v>
+        <v>0.76261478746568212</v>
       </c>
       <c r="J11">
-        <v>0.97351956013398222</v>
+        <v>0.96757549938464449</v>
       </c>
       <c r="K11">
-        <v>0.81362573469000821</v>
+        <v>0.80199753857805545</v>
       </c>
       <c r="L11">
-        <v>0.6806547430954939</v>
+        <v>0.67745905519265359</v>
       </c>
       <c r="M11">
-        <v>0.72837009416671938</v>
+        <v>0.72190665530625764</v>
       </c>
       <c r="N11">
-        <v>0.80838020602919802</v>
+        <v>0.7824008330966582</v>
       </c>
       <c r="O11">
-        <v>0.66889970296403967</v>
+        <v>0.67130550033134528</v>
       </c>
       <c r="P11">
-        <v>0.84023257283700936</v>
+        <v>0.84379437659755752</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0.69885944038729797</v>
@@ -1021,7 +1021,7 @@
         <v>0.5811110199392796</v>
       </c>
       <c r="I12">
-        <v>0.72261426109789118</v>
+        <v>0.69570033642405837</v>
       </c>
       <c r="J12">
         <v>0.72400919012062037</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.56190509765211871</v>
@@ -1071,7 +1071,7 @@
         <v>0.50433617711344569</v>
       </c>
       <c r="I13">
-        <v>0.57346823662130719</v>
+        <v>0.56870901783825711</v>
       </c>
       <c r="J13">
         <v>0.58538391031516601</v>
@@ -1097,57 +1097,57 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.43621522447298461</v>
+        <v>0.39855923576853808</v>
       </c>
       <c r="C14">
-        <v>0.32216272887258018</v>
+        <v>0.30561428235846838</v>
       </c>
       <c r="D14">
-        <v>0.29883551128917513</v>
+        <v>0.26622817320491737</v>
       </c>
       <c r="E14">
-        <v>0.44291758714943652</v>
+        <v>0.41288857567927328</v>
       </c>
       <c r="F14">
-        <v>0.44741079117834281</v>
+        <v>0.46049643724062328</v>
       </c>
       <c r="G14">
-        <v>0.5619500505485453</v>
+        <v>0.53895544593219014</v>
       </c>
       <c r="H14">
-        <v>0.3615905942262328</v>
+        <v>0.39942056221125988</v>
       </c>
       <c r="I14">
-        <v>0.44029655146590779</v>
+        <v>0.35345705113146969</v>
       </c>
       <c r="J14">
-        <v>0.46519639045943012</v>
+        <v>0.46253229974160209</v>
       </c>
       <c r="K14">
-        <v>0.54712247725315455</v>
+        <v>0.53699788583509511</v>
       </c>
       <c r="L14">
-        <v>0.58213202531171604</v>
+        <v>0.58656330749354002</v>
       </c>
       <c r="M14">
-        <v>0.9370951435953121</v>
+        <v>0.97917156056690935</v>
       </c>
       <c r="N14">
-        <v>0.54626127981428085</v>
+        <v>0.53597995458460579</v>
       </c>
       <c r="O14">
-        <v>0.35032014078705959</v>
+        <v>0.35557121603633229</v>
       </c>
       <c r="P14">
-        <v>0.47085033886247052</v>
+        <v>0.47787957090282668</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0.59469475326701771</v>
@@ -1171,7 +1171,7 @@
         <v>0.64784474351472598</v>
       </c>
       <c r="I15">
-        <v>0.68626877316169299</v>
+        <v>0.68938950653403552</v>
       </c>
       <c r="J15">
         <v>0.72683830700214547</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0.59759265958496399</v>
@@ -1221,7 +1221,7 @@
         <v>0.54648600651165846</v>
       </c>
       <c r="I16">
-        <v>0.68224422008090246</v>
+        <v>0.62465879567204918</v>
       </c>
       <c r="J16">
         <v>0.54549939158746341</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0.55096782717843695</v>
@@ -1271,7 +1271,7 @@
         <v>0.4899253484838475</v>
       </c>
       <c r="I17">
-        <v>0.65217678536037527</v>
+        <v>0.62357138138336521</v>
       </c>
       <c r="J17">
         <v>0.51575609433837621</v>
